--- a/2.Study status-2025.xlsx
+++ b/2.Study status-2025.xlsx
@@ -2544,11 +2544,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-635696624"/>
-        <c:axId val="-635705872"/>
+        <c:axId val="186705376"/>
+        <c:axId val="186704832"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="-635696624"/>
+        <c:axId val="186705376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2591,14 +2591,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-635705872"/>
+        <c:crossAx val="186704832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-635705872"/>
+        <c:axId val="186704832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2649,7 +2649,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-635696624"/>
+        <c:crossAx val="186705376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3009,11 +3009,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-635704784"/>
-        <c:axId val="-635704240"/>
+        <c:axId val="186707008"/>
+        <c:axId val="186702656"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="-635704784"/>
+        <c:axId val="186707008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3053,14 +3053,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-635704240"/>
+        <c:crossAx val="186702656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-635704240"/>
+        <c:axId val="186702656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3108,7 +3108,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-635704784"/>
+        <c:crossAx val="186707008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3403,7 +3403,7 @@
                   <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1</c:v>
+                  <c:v>2.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3420,11 +3420,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-606095136"/>
-        <c:axId val="-606084800"/>
+        <c:axId val="186697760"/>
+        <c:axId val="186696128"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="-606095136"/>
+        <c:axId val="186697760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3464,14 +3464,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-606084800"/>
+        <c:crossAx val="186696128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-606084800"/>
+        <c:axId val="186696128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3519,7 +3519,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-606095136"/>
+        <c:crossAx val="186697760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9171,7 +9171,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J13" sqref="J13"/>
+      <selection pane="bottomLeft" activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9239,7 +9239,7 @@
       </c>
       <c r="P1" s="90">
         <f>SUM(B3:B30)</f>
-        <v>32.5</v>
+        <v>33.75</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
@@ -9682,7 +9682,7 @@
         <v>45728</v>
       </c>
       <c r="B14" s="75">
-        <v>1</v>
+        <v>2.25</v>
       </c>
       <c r="C14" s="86"/>
       <c r="D14" s="52"/>
